--- a/data/FPE.xlsx
+++ b/data/FPE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FPE 501 or consent of instructor.</t>
+          <t>FPE 501 or consent of instructor.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FPE 502.</t>
+          <t>FPE 502.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FPE 502, FPE 503.</t>
+          <t>FPE 502, FPE 503.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FPE 502 and FPE 504.</t>
+          <t>FPE 502 and FPE 504.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Consent of graduate coordinator and instructor. Recommended: FPE 504.</t>
+          <t>Consent of graduate coordinator and instructor.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FPE 504.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graduate standing or consent of instructor. Recommended: LA/NR 318 and NR 340.</t>
+          <t>Graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LA/NR 318 and NR 340.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ME 347 or FPE 502; and ME 350.</t>
+          <t>ME 347 or FPE 502; and ME 350.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FPE 504, advanced graduate standing, completion of, or concurrent enrollment in, engineering courses in program, and consent of instructor.</t>
+          <t>FPE 504, advanced graduate standing, completion of, or concurrent enrollment in, engineering courses in program, and consent of instructor.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -744,6 +999,21 @@
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
